--- a/Modulo5/src/out/info_estados/Idaho.xlsx
+++ b/Modulo5/src/out/info_estados/Idaho.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="71">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>I</t>
@@ -656,14 +662,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>7337</v>
       </c>
       <c r="M2">
         <v>16001</v>
@@ -700,14 +706,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>1664</v>
       </c>
       <c r="M3">
         <v>16001</v>
@@ -744,14 +750,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>15192</v>
       </c>
       <c r="M4">
         <v>16001</v>
@@ -788,14 +794,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>5307</v>
       </c>
       <c r="M5">
         <v>16001</v>
@@ -832,14 +838,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>8075</v>
       </c>
       <c r="M6">
         <v>16001</v>
@@ -876,14 +882,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>20157</v>
       </c>
       <c r="M7">
         <v>16001</v>
@@ -920,14 +926,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M8">
         <v>16003</v>
@@ -964,14 +970,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M9">
         <v>16003</v>
@@ -1008,14 +1014,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>355</v>
       </c>
       <c r="M10">
         <v>16003</v>
@@ -1052,14 +1058,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="M11">
         <v>16003</v>
@@ -1096,14 +1102,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="M12">
         <v>16003</v>
@@ -1140,14 +1146,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="M13">
         <v>16003</v>
@@ -1184,14 +1190,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>1198</v>
       </c>
       <c r="M14">
         <v>16005</v>
@@ -1228,14 +1234,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>302</v>
       </c>
       <c r="M15">
         <v>16005</v>
@@ -1272,14 +1278,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>69</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>1712</v>
       </c>
       <c r="M16">
         <v>16005</v>
@@ -1316,14 +1322,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>69</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>495</v>
       </c>
       <c r="M17">
         <v>16005</v>
@@ -1360,14 +1366,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>69</v>
       </c>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>2018</v>
       </c>
       <c r="M18">
         <v>16005</v>
@@ -1404,14 +1410,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>69</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>4405</v>
       </c>
       <c r="M19">
         <v>16005</v>
@@ -1448,14 +1454,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M20">
         <v>16007</v>
@@ -1492,14 +1498,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M21">
         <v>16007</v>
@@ -1536,14 +1542,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>364</v>
       </c>
       <c r="M22">
         <v>16007</v>
@@ -1580,14 +1586,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="M23">
         <v>16007</v>
@@ -1624,14 +1630,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="M24">
         <v>16007</v>
@@ -1668,14 +1674,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>644</v>
       </c>
       <c r="M25">
         <v>16007</v>
@@ -1712,14 +1718,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>68</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="M26">
         <v>16009</v>
@@ -1756,14 +1762,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>68</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M27">
         <v>16009</v>
@@ -1800,14 +1806,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>69</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>429</v>
       </c>
       <c r="M28">
         <v>16009</v>
@@ -1844,14 +1850,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>69</v>
       </c>
       <c r="K29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M29">
         <v>16009</v>
@@ -1888,14 +1894,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="M30">
         <v>16009</v>
@@ -1932,14 +1938,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>69</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>672</v>
       </c>
       <c r="M31">
         <v>16009</v>
@@ -1976,14 +1982,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>68</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="M32">
         <v>16011</v>
@@ -2020,14 +2026,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>68</v>
       </c>
       <c r="K33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="M33">
         <v>16011</v>
@@ -2064,14 +2070,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>69</v>
       </c>
       <c r="K34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>1192</v>
       </c>
       <c r="M34">
         <v>16011</v>
@@ -2108,14 +2114,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="M35">
         <v>16011</v>
@@ -2152,14 +2158,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>69</v>
       </c>
       <c r="K36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>1762</v>
       </c>
       <c r="M36">
         <v>16011</v>
@@ -2196,14 +2202,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>69</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>3472</v>
       </c>
       <c r="M37">
         <v>16011</v>
@@ -2240,14 +2246,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>68</v>
       </c>
       <c r="K38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>540</v>
       </c>
       <c r="M38">
         <v>16013</v>
@@ -2284,14 +2290,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>68</v>
       </c>
       <c r="K39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="M39">
         <v>16013</v>
@@ -2328,14 +2334,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>69</v>
       </c>
       <c r="K40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>544</v>
       </c>
       <c r="M40">
         <v>16013</v>
@@ -2372,14 +2378,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>69</v>
       </c>
       <c r="K41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>359</v>
       </c>
       <c r="M41">
         <v>16013</v>
@@ -2416,14 +2422,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>69</v>
       </c>
       <c r="K42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="M42">
         <v>16013</v>
@@ -2460,14 +2466,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>69</v>
       </c>
       <c r="K43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="M43">
         <v>16013</v>
@@ -2504,14 +2510,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>68</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="M44">
         <v>16015</v>
@@ -2548,14 +2554,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>68</v>
       </c>
       <c r="K45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="M45">
         <v>16015</v>
@@ -2592,14 +2598,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>69</v>
       </c>
       <c r="K46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>692</v>
       </c>
       <c r="M46">
         <v>16015</v>
@@ -2636,14 +2642,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>69</v>
       </c>
       <c r="K47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="M47">
         <v>16015</v>
@@ -2680,14 +2686,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>69</v>
       </c>
       <c r="K48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="M48">
         <v>16015</v>
@@ -2724,14 +2730,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>69</v>
       </c>
       <c r="K49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>542</v>
       </c>
       <c r="M49">
         <v>16015</v>
@@ -2768,14 +2774,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>68</v>
       </c>
       <c r="K50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>717</v>
       </c>
       <c r="M50">
         <v>16017</v>
@@ -2812,14 +2818,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>68</v>
       </c>
       <c r="K51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="M51">
         <v>16017</v>
@@ -2856,14 +2862,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>69</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>2411</v>
       </c>
       <c r="M52">
         <v>16017</v>
@@ -2900,14 +2906,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>69</v>
       </c>
       <c r="K53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>588</v>
       </c>
       <c r="M53">
         <v>16017</v>
@@ -2944,14 +2950,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>69</v>
       </c>
       <c r="K54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>510</v>
       </c>
       <c r="M54">
         <v>16017</v>
@@ -2988,14 +2994,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>69</v>
       </c>
       <c r="K55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>3133</v>
       </c>
       <c r="M55">
         <v>16017</v>
@@ -3032,14 +3038,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>68</v>
       </c>
       <c r="K56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>823</v>
       </c>
       <c r="M56">
         <v>16019</v>
@@ -3076,14 +3082,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>68</v>
       </c>
       <c r="K57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="M57">
         <v>16019</v>
@@ -3120,14 +3126,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>69</v>
       </c>
       <c r="K58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>2703</v>
       </c>
       <c r="M58">
         <v>16019</v>
@@ -3164,14 +3170,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>69</v>
       </c>
       <c r="K59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>1071</v>
       </c>
       <c r="M59">
         <v>16019</v>
@@ -3208,14 +3214,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>69</v>
       </c>
       <c r="K60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>4902</v>
       </c>
       <c r="M60">
         <v>16019</v>
@@ -3252,14 +3258,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>69</v>
       </c>
       <c r="K61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>7795</v>
       </c>
       <c r="M61">
         <v>16019</v>
@@ -3296,14 +3302,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>68</v>
       </c>
       <c r="K62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="M62">
         <v>16021</v>
@@ -3340,14 +3346,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>68</v>
       </c>
       <c r="K63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M63">
         <v>16021</v>
@@ -3384,14 +3390,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>69</v>
       </c>
       <c r="K64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>789</v>
       </c>
       <c r="M64">
         <v>16021</v>
@@ -3428,14 +3434,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>69</v>
       </c>
       <c r="K65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="M65">
         <v>16021</v>
@@ -3472,14 +3478,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>69</v>
       </c>
       <c r="K66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="M66">
         <v>16021</v>
@@ -3516,14 +3522,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>69</v>
       </c>
       <c r="K67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>902</v>
       </c>
       <c r="M67">
         <v>16021</v>
@@ -3560,14 +3566,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>68</v>
       </c>
       <c r="K68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M68">
         <v>16023</v>
@@ -3604,14 +3610,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>68</v>
       </c>
       <c r="K69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M69">
         <v>16023</v>
@@ -3648,14 +3654,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>69</v>
       </c>
       <c r="K70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="M70">
         <v>16023</v>
@@ -3692,14 +3698,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>69</v>
       </c>
       <c r="K71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M71">
         <v>16023</v>
@@ -3736,14 +3742,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>69</v>
       </c>
       <c r="K72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="M72">
         <v>16023</v>
@@ -3780,14 +3786,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>69</v>
       </c>
       <c r="K73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>276</v>
       </c>
       <c r="M73">
         <v>16023</v>
@@ -3824,14 +3830,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>68</v>
       </c>
       <c r="K74" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M74">
         <v>16025</v>
@@ -3868,14 +3874,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>68</v>
       </c>
       <c r="K75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M75">
         <v>16025</v>
@@ -3912,14 +3918,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>69</v>
       </c>
       <c r="K76" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="M76">
         <v>16025</v>
@@ -3956,14 +3962,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>69</v>
       </c>
       <c r="K77" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="M77">
         <v>16025</v>
@@ -4000,14 +4006,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>69</v>
       </c>
       <c r="K78" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="M78">
         <v>16025</v>
@@ -4044,14 +4050,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>69</v>
       </c>
       <c r="K79" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="M79">
         <v>16025</v>
@@ -4088,14 +4094,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>68</v>
       </c>
       <c r="K80" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>1313</v>
       </c>
       <c r="M80">
         <v>16027</v>
@@ -4132,14 +4138,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>68</v>
       </c>
       <c r="K81" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>279</v>
       </c>
       <c r="M81">
         <v>16027</v>
@@ -4176,14 +4182,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>69</v>
       </c>
       <c r="K82" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>7342</v>
       </c>
       <c r="M82">
         <v>16027</v>
@@ -4220,14 +4226,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>69</v>
       </c>
       <c r="K83" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>1377</v>
       </c>
       <c r="M83">
         <v>16027</v>
@@ -4264,14 +4270,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>69</v>
       </c>
       <c r="K84" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>2988</v>
       </c>
       <c r="M84">
         <v>16027</v>
@@ -4308,14 +4314,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>69</v>
       </c>
       <c r="K85" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>11165</v>
       </c>
       <c r="M85">
         <v>16027</v>
@@ -4352,14 +4358,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>68</v>
       </c>
       <c r="K86" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M86">
         <v>16029</v>
@@ -4396,11 +4402,11 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>68</v>
       </c>
       <c r="K87" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L87">
         <v>4</v>
@@ -4440,14 +4446,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>69</v>
       </c>
       <c r="K88" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="M88">
         <v>16029</v>
@@ -4484,14 +4490,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>69</v>
       </c>
       <c r="K89" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="M89">
         <v>16029</v>
@@ -4528,14 +4534,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>69</v>
       </c>
       <c r="K90" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="M90">
         <v>16029</v>
@@ -4572,14 +4578,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>69</v>
       </c>
       <c r="K91" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>603</v>
       </c>
       <c r="M91">
         <v>16029</v>
@@ -4616,14 +4622,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>68</v>
       </c>
       <c r="K92" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="M92">
         <v>16031</v>
@@ -4660,14 +4666,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>68</v>
       </c>
       <c r="K93" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="M93">
         <v>16031</v>
@@ -4704,14 +4710,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>69</v>
       </c>
       <c r="K94" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>1026</v>
       </c>
       <c r="M94">
         <v>16031</v>
@@ -4748,14 +4754,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>69</v>
       </c>
       <c r="K95" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="M95">
         <v>16031</v>
@@ -4792,14 +4798,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>69</v>
       </c>
       <c r="K96" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>820</v>
       </c>
       <c r="M96">
         <v>16031</v>
@@ -4836,14 +4842,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>69</v>
       </c>
       <c r="K97" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>2096</v>
       </c>
       <c r="M97">
         <v>16031</v>
@@ -4880,14 +4886,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>68</v>
       </c>
       <c r="K98" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M98">
         <v>16033</v>
@@ -4924,14 +4930,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>68</v>
       </c>
       <c r="K99" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M99">
         <v>16033</v>
@@ -4968,14 +4974,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>69</v>
       </c>
       <c r="K100" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="M100">
         <v>16033</v>
@@ -5012,14 +5018,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>69</v>
       </c>
       <c r="K101" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M101">
         <v>16033</v>
@@ -5056,14 +5062,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>69</v>
       </c>
       <c r="K102" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="M102">
         <v>16033</v>
@@ -5100,14 +5106,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>69</v>
       </c>
       <c r="K103" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="M103">
         <v>16033</v>
@@ -5144,14 +5150,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>68</v>
       </c>
       <c r="K104" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M104">
         <v>16035</v>
@@ -5188,14 +5194,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>68</v>
       </c>
       <c r="K105" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="M105">
         <v>16035</v>
@@ -5232,14 +5238,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>69</v>
       </c>
       <c r="K106" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>630</v>
       </c>
       <c r="M106">
         <v>16035</v>
@@ -5276,14 +5282,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>69</v>
       </c>
       <c r="K107" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="M107">
         <v>16035</v>
@@ -5320,14 +5326,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>69</v>
       </c>
       <c r="K108" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="M108">
         <v>16035</v>
@@ -5364,14 +5370,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>69</v>
       </c>
       <c r="K109" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>478</v>
       </c>
       <c r="M109">
         <v>16035</v>
@@ -5408,14 +5414,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>68</v>
       </c>
       <c r="K110" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M110">
         <v>16037</v>
@@ -5452,14 +5458,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>68</v>
       </c>
       <c r="K111" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M111">
         <v>16037</v>
@@ -5496,14 +5502,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>69</v>
       </c>
       <c r="K112" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>431</v>
       </c>
       <c r="M112">
         <v>16037</v>
@@ -5540,14 +5546,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>69</v>
       </c>
       <c r="K113" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="M113">
         <v>16037</v>
@@ -5584,14 +5590,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>69</v>
       </c>
       <c r="K114" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="M114">
         <v>16037</v>
@@ -5628,14 +5634,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>69</v>
       </c>
       <c r="K115" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="M115">
         <v>16037</v>
@@ -5672,14 +5678,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>68</v>
       </c>
       <c r="K116" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="M116">
         <v>16039</v>
@@ -5716,14 +5722,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>68</v>
       </c>
       <c r="K117" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="M117">
         <v>16039</v>
@@ -5760,14 +5766,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>69</v>
       </c>
       <c r="K118" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>1253</v>
       </c>
       <c r="M118">
         <v>16039</v>
@@ -5804,14 +5810,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>69</v>
       </c>
       <c r="K119" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="M119">
         <v>16039</v>
@@ -5848,14 +5854,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>69</v>
       </c>
       <c r="K120" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>379</v>
       </c>
       <c r="M120">
         <v>16039</v>
@@ -5892,14 +5898,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>69</v>
       </c>
       <c r="K121" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>893</v>
       </c>
       <c r="M121">
         <v>16039</v>
@@ -5936,14 +5942,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>68</v>
       </c>
       <c r="K122" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="M122">
         <v>16041</v>
@@ -5980,14 +5986,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>68</v>
       </c>
       <c r="K123" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M123">
         <v>16041</v>
@@ -6024,14 +6030,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>69</v>
       </c>
       <c r="K124" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>412</v>
       </c>
       <c r="M124">
         <v>16041</v>
@@ -6068,14 +6074,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>69</v>
       </c>
       <c r="K125" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="M125">
         <v>16041</v>
@@ -6112,14 +6118,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>69</v>
       </c>
       <c r="K126" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>510</v>
       </c>
       <c r="M126">
         <v>16041</v>
@@ -6156,14 +6162,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>69</v>
       </c>
       <c r="K127" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>1188</v>
       </c>
       <c r="M127">
         <v>16041</v>
@@ -6200,14 +6206,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>68</v>
       </c>
       <c r="K128" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M128">
         <v>16043</v>
@@ -6244,14 +6250,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>68</v>
       </c>
       <c r="K129" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M129">
         <v>16043</v>
@@ -6288,14 +6294,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>69</v>
       </c>
       <c r="K130" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="M130">
         <v>16043</v>
@@ -6332,14 +6338,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>69</v>
       </c>
       <c r="K131" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="M131">
         <v>16043</v>
@@ -6376,14 +6382,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>69</v>
       </c>
       <c r="K132" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>596</v>
       </c>
       <c r="M132">
         <v>16043</v>
@@ -6420,14 +6426,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>69</v>
       </c>
       <c r="K133" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>1435</v>
       </c>
       <c r="M133">
         <v>16043</v>
@@ -6464,14 +6470,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>68</v>
       </c>
       <c r="K134" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="M134">
         <v>16045</v>
@@ -6508,14 +6514,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>68</v>
       </c>
       <c r="K135" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="M135">
         <v>16045</v>
@@ -6552,14 +6558,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>69</v>
       </c>
       <c r="K136" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>1231</v>
       </c>
       <c r="M136">
         <v>16045</v>
@@ -6596,14 +6602,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>69</v>
       </c>
       <c r="K137" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="M137">
         <v>16045</v>
@@ -6640,14 +6646,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>69</v>
       </c>
       <c r="K138" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="M138">
         <v>16045</v>
@@ -6684,14 +6690,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>69</v>
       </c>
       <c r="K139" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>1392</v>
       </c>
       <c r="M139">
         <v>16045</v>
@@ -6728,14 +6734,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>68</v>
       </c>
       <c r="K140" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="M140">
         <v>16047</v>
@@ -6772,14 +6778,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>68</v>
       </c>
       <c r="K141" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="M141">
         <v>16047</v>
@@ -6816,14 +6822,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>69</v>
       </c>
       <c r="K142" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>680</v>
       </c>
       <c r="M142">
         <v>16047</v>
@@ -6860,14 +6866,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>69</v>
       </c>
       <c r="K143" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="M143">
         <v>16047</v>
@@ -6904,14 +6910,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>69</v>
       </c>
       <c r="K144" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="M144">
         <v>16047</v>
@@ -6948,14 +6954,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>69</v>
       </c>
       <c r="K145" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>864</v>
       </c>
       <c r="M145">
         <v>16047</v>
@@ -6992,14 +6998,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>68</v>
       </c>
       <c r="K146" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M146">
         <v>16049</v>
@@ -7036,14 +7042,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>68</v>
       </c>
       <c r="K147" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M147">
         <v>16049</v>
@@ -7080,14 +7086,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>69</v>
       </c>
       <c r="K148" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>1669</v>
       </c>
       <c r="M148">
         <v>16049</v>
@@ -7124,14 +7130,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>69</v>
       </c>
       <c r="K149" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="M149">
         <v>16049</v>
@@ -7168,14 +7174,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>69</v>
       </c>
       <c r="K150" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>372</v>
       </c>
       <c r="M150">
         <v>16049</v>
@@ -7212,14 +7218,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>69</v>
       </c>
       <c r="K151" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>1496</v>
       </c>
       <c r="M151">
         <v>16049</v>
@@ -7256,14 +7262,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>68</v>
       </c>
       <c r="K152" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="M152">
         <v>16051</v>
@@ -7300,14 +7306,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>68</v>
       </c>
       <c r="K153" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M153">
         <v>16051</v>
@@ -7344,14 +7350,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>69</v>
       </c>
       <c r="K154" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>854</v>
       </c>
       <c r="M154">
         <v>16051</v>
@@ -7388,14 +7394,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>69</v>
       </c>
       <c r="K155" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="M155">
         <v>16051</v>
@@ -7432,14 +7438,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>69</v>
       </c>
       <c r="K156" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>1324</v>
       </c>
       <c r="M156">
         <v>16051</v>
@@ -7476,14 +7482,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>69</v>
       </c>
       <c r="K157" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>3081</v>
       </c>
       <c r="M157">
         <v>16051</v>
@@ -7520,14 +7526,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>68</v>
       </c>
       <c r="K158" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="M158">
         <v>16053</v>
@@ -7564,14 +7570,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>68</v>
       </c>
       <c r="K159" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="M159">
         <v>16053</v>
@@ -7608,14 +7614,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>69</v>
       </c>
       <c r="K160" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>755</v>
       </c>
       <c r="M160">
         <v>16053</v>
@@ -7652,14 +7658,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>69</v>
       </c>
       <c r="K161" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="M161">
         <v>16053</v>
@@ -7696,14 +7702,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>69</v>
       </c>
       <c r="K162" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="M162">
         <v>16053</v>
@@ -7740,14 +7746,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>69</v>
       </c>
       <c r="K163" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>1165</v>
       </c>
       <c r="M163">
         <v>16053</v>
@@ -7784,14 +7790,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>68</v>
       </c>
       <c r="K164" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>1562</v>
       </c>
       <c r="M164">
         <v>16055</v>
@@ -7828,14 +7834,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>68</v>
       </c>
       <c r="K165" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>494</v>
       </c>
       <c r="M165">
         <v>16055</v>
@@ -7872,14 +7878,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>69</v>
       </c>
       <c r="K166" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>6517</v>
       </c>
       <c r="M166">
         <v>16055</v>
@@ -7916,14 +7922,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>69</v>
       </c>
       <c r="K167" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>1529</v>
       </c>
       <c r="M167">
         <v>16055</v>
@@ -7960,14 +7966,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>69</v>
       </c>
       <c r="K168" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>1881</v>
       </c>
       <c r="M168">
         <v>16055</v>
@@ -8004,14 +8010,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>69</v>
       </c>
       <c r="K169" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>11925</v>
       </c>
       <c r="M169">
         <v>16055</v>
@@ -8048,14 +8054,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>68</v>
       </c>
       <c r="K170" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>1613</v>
       </c>
       <c r="M170">
         <v>16057</v>
@@ -8092,14 +8098,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>68</v>
       </c>
       <c r="K171" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>311</v>
       </c>
       <c r="M171">
         <v>16057</v>
@@ -8136,14 +8142,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>69</v>
       </c>
       <c r="K172" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>920</v>
       </c>
       <c r="M172">
         <v>16057</v>
@@ -8180,14 +8186,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>69</v>
       </c>
       <c r="K173" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>330</v>
       </c>
       <c r="M173">
         <v>16057</v>
@@ -8224,14 +8230,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>69</v>
       </c>
       <c r="K174" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>458</v>
       </c>
       <c r="M174">
         <v>16057</v>
@@ -8268,14 +8274,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>69</v>
       </c>
       <c r="K175" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>2135</v>
       </c>
       <c r="M175">
         <v>16057</v>
@@ -8312,14 +8318,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>68</v>
       </c>
       <c r="K176" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="M176">
         <v>16059</v>
@@ -8356,14 +8362,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>68</v>
       </c>
       <c r="K177" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M177">
         <v>16059</v>
@@ -8400,14 +8406,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>69</v>
       </c>
       <c r="K178" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>758</v>
       </c>
       <c r="M178">
         <v>16059</v>
@@ -8444,14 +8450,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>69</v>
       </c>
       <c r="K179" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="M179">
         <v>16059</v>
@@ -8488,14 +8494,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>69</v>
       </c>
       <c r="K180" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>336</v>
       </c>
       <c r="M180">
         <v>16059</v>
@@ -8532,14 +8538,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>69</v>
       </c>
       <c r="K181" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>598</v>
       </c>
       <c r="M181">
         <v>16059</v>
@@ -8576,14 +8582,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>68</v>
       </c>
       <c r="K182" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M182">
         <v>16061</v>
@@ -8620,14 +8626,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>68</v>
       </c>
       <c r="K183" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M183">
         <v>16061</v>
@@ -8664,14 +8670,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>69</v>
       </c>
       <c r="K184" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="M184">
         <v>16061</v>
@@ -8708,14 +8714,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>69</v>
       </c>
       <c r="K185" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M185">
         <v>16061</v>
@@ -8752,14 +8758,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>69</v>
       </c>
       <c r="K186" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="M186">
         <v>16061</v>
@@ -8796,14 +8802,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>69</v>
       </c>
       <c r="K187" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="M187">
         <v>16061</v>
@@ -8840,14 +8846,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>68</v>
       </c>
       <c r="K188" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M188">
         <v>16063</v>
@@ -8884,14 +8890,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>68</v>
       </c>
       <c r="K189" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M189">
         <v>16063</v>
@@ -8928,14 +8934,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>69</v>
       </c>
       <c r="K190" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="M190">
         <v>16063</v>
@@ -8972,14 +8978,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>69</v>
       </c>
       <c r="K191" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="M191">
         <v>16063</v>
@@ -9016,14 +9022,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>69</v>
       </c>
       <c r="K192" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="M192">
         <v>16063</v>
@@ -9060,14 +9066,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>69</v>
       </c>
       <c r="K193" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>277</v>
       </c>
       <c r="M193">
         <v>16063</v>
@@ -9104,14 +9110,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>68</v>
       </c>
       <c r="K194" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="M194">
         <v>16065</v>
@@ -9148,14 +9154,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>68</v>
       </c>
       <c r="K195" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="M195">
         <v>16065</v>
@@ -9192,14 +9198,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>69</v>
       </c>
       <c r="K196" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>540</v>
       </c>
       <c r="M196">
         <v>16065</v>
@@ -9236,14 +9242,14 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>69</v>
       </c>
       <c r="K197" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="M197">
         <v>16065</v>
@@ -9280,14 +9286,14 @@
       <c r="I198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>69</v>
       </c>
       <c r="K198" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>1926</v>
       </c>
       <c r="M198">
         <v>16065</v>
@@ -9324,14 +9330,14 @@
       <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>69</v>
       </c>
       <c r="K199" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>4080</v>
       </c>
       <c r="M199">
         <v>16065</v>
@@ -9368,14 +9374,14 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>68</v>
       </c>
       <c r="K200" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="M200">
         <v>16067</v>
@@ -9412,14 +9418,14 @@
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>68</v>
       </c>
       <c r="K201" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M201">
         <v>16067</v>
@@ -9456,14 +9462,14 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>69</v>
       </c>
       <c r="K202" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>756</v>
       </c>
       <c r="M202">
         <v>16067</v>
@@ -9500,14 +9506,14 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>69</v>
       </c>
       <c r="K203" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="M203">
         <v>16067</v>
@@ -9544,14 +9550,14 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>69</v>
       </c>
       <c r="K204" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>377</v>
       </c>
       <c r="M204">
         <v>16067</v>
@@ -9588,14 +9594,14 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>69</v>
       </c>
       <c r="K205" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>1164</v>
       </c>
       <c r="M205">
         <v>16067</v>
@@ -9632,14 +9638,14 @@
       <c r="I206">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>3</v>
+      <c r="J206" t="s">
+        <v>68</v>
       </c>
       <c r="K206" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>384</v>
       </c>
       <c r="M206">
         <v>16069</v>
@@ -9676,14 +9682,14 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>3</v>
+      <c r="J207" t="s">
+        <v>68</v>
       </c>
       <c r="K207" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="M207">
         <v>16069</v>
@@ -9720,14 +9726,14 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>3</v>
+      <c r="J208" t="s">
+        <v>69</v>
       </c>
       <c r="K208" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>1420</v>
       </c>
       <c r="M208">
         <v>16069</v>
@@ -9764,14 +9770,14 @@
       <c r="I209">
         <v>1</v>
       </c>
-      <c r="J209">
-        <v>3</v>
+      <c r="J209" t="s">
+        <v>69</v>
       </c>
       <c r="K209" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>324</v>
       </c>
       <c r="M209">
         <v>16069</v>
@@ -9808,14 +9814,14 @@
       <c r="I210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>3</v>
+      <c r="J210" t="s">
+        <v>69</v>
       </c>
       <c r="K210" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>462</v>
       </c>
       <c r="M210">
         <v>16069</v>
@@ -9852,14 +9858,14 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
-        <v>3</v>
+      <c r="J211" t="s">
+        <v>69</v>
       </c>
       <c r="K211" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>1584</v>
       </c>
       <c r="M211">
         <v>16069</v>
@@ -9896,14 +9902,14 @@
       <c r="I212">
         <v>1</v>
       </c>
-      <c r="J212">
-        <v>3</v>
+      <c r="J212" t="s">
+        <v>68</v>
       </c>
       <c r="K212" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M212">
         <v>16071</v>
@@ -9940,14 +9946,14 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3</v>
+      <c r="J213" t="s">
+        <v>68</v>
       </c>
       <c r="K213" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M213">
         <v>16071</v>
@@ -9984,14 +9990,14 @@
       <c r="I214">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>3</v>
+      <c r="J214" t="s">
+        <v>69</v>
       </c>
       <c r="K214" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="M214">
         <v>16071</v>
@@ -10028,14 +10034,14 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>3</v>
+      <c r="J215" t="s">
+        <v>69</v>
       </c>
       <c r="K215" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M215">
         <v>16071</v>
@@ -10072,14 +10078,14 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>3</v>
+      <c r="J216" t="s">
+        <v>69</v>
       </c>
       <c r="K216" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="M216">
         <v>16071</v>
@@ -10116,14 +10122,14 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>3</v>
+      <c r="J217" t="s">
+        <v>69</v>
       </c>
       <c r="K217" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>474</v>
       </c>
       <c r="M217">
         <v>16071</v>
@@ -10160,14 +10166,14 @@
       <c r="I218">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>3</v>
+      <c r="J218" t="s">
+        <v>68</v>
       </c>
       <c r="K218" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="M218">
         <v>16073</v>
@@ -10204,14 +10210,14 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>3</v>
+      <c r="J219" t="s">
+        <v>68</v>
       </c>
       <c r="K219" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M219">
         <v>16073</v>
@@ -10248,14 +10254,14 @@
       <c r="I220">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3</v>
+      <c r="J220" t="s">
+        <v>69</v>
       </c>
       <c r="K220" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>707</v>
       </c>
       <c r="M220">
         <v>16073</v>
@@ -10292,14 +10298,14 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>3</v>
+      <c r="J221" t="s">
+        <v>69</v>
       </c>
       <c r="K221" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="M221">
         <v>16073</v>
@@ -10336,14 +10342,14 @@
       <c r="I222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3</v>
+      <c r="J222" t="s">
+        <v>69</v>
       </c>
       <c r="K222" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="M222">
         <v>16073</v>
@@ -10380,14 +10386,14 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>3</v>
+      <c r="J223" t="s">
+        <v>69</v>
       </c>
       <c r="K223" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>718</v>
       </c>
       <c r="M223">
         <v>16073</v>
@@ -10424,14 +10430,14 @@
       <c r="I224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>3</v>
+      <c r="J224" t="s">
+        <v>68</v>
       </c>
       <c r="K224" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="M224">
         <v>16075</v>
@@ -10468,14 +10474,14 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>3</v>
+      <c r="J225" t="s">
+        <v>68</v>
       </c>
       <c r="K225" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M225">
         <v>16075</v>
@@ -10512,14 +10518,14 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>3</v>
+      <c r="J226" t="s">
+        <v>69</v>
       </c>
       <c r="K226" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>1290</v>
       </c>
       <c r="M226">
         <v>16075</v>
@@ -10556,14 +10562,14 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>3</v>
+      <c r="J227" t="s">
+        <v>69</v>
       </c>
       <c r="K227" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="M227">
         <v>16075</v>
@@ -10600,14 +10606,14 @@
       <c r="I228">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>3</v>
+      <c r="J228" t="s">
+        <v>69</v>
       </c>
       <c r="K228" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="M228">
         <v>16075</v>
@@ -10644,14 +10650,14 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>3</v>
+      <c r="J229" t="s">
+        <v>69</v>
       </c>
       <c r="K229" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>1365</v>
       </c>
       <c r="M229">
         <v>16075</v>
@@ -10688,14 +10694,14 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>3</v>
+      <c r="J230" t="s">
+        <v>68</v>
       </c>
       <c r="K230" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M230">
         <v>16077</v>
@@ -10732,14 +10738,14 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>3</v>
+      <c r="J231" t="s">
+        <v>68</v>
       </c>
       <c r="K231" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M231">
         <v>16077</v>
@@ -10776,14 +10782,14 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3</v>
+      <c r="J232" t="s">
+        <v>69</v>
       </c>
       <c r="K232" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="M232">
         <v>16077</v>
@@ -10820,14 +10826,14 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>3</v>
+      <c r="J233" t="s">
+        <v>69</v>
       </c>
       <c r="K233" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="M233">
         <v>16077</v>
@@ -10864,14 +10870,14 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>3</v>
+      <c r="J234" t="s">
+        <v>69</v>
       </c>
       <c r="K234" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="M234">
         <v>16077</v>
@@ -10908,14 +10914,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235">
-        <v>3</v>
+      <c r="J235" t="s">
+        <v>69</v>
       </c>
       <c r="K235" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>422</v>
       </c>
       <c r="M235">
         <v>16077</v>
@@ -10952,14 +10958,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>3</v>
+      <c r="J236" t="s">
+        <v>68</v>
       </c>
       <c r="K236" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="M236">
         <v>16079</v>
@@ -10996,14 +11002,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>3</v>
+      <c r="J237" t="s">
+        <v>68</v>
       </c>
       <c r="K237" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M237">
         <v>16079</v>
@@ -11040,14 +11046,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>3</v>
+      <c r="J238" t="s">
+        <v>69</v>
       </c>
       <c r="K238" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>633</v>
       </c>
       <c r="M238">
         <v>16079</v>
@@ -11084,14 +11090,14 @@
       <c r="I239">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>3</v>
+      <c r="J239" t="s">
+        <v>69</v>
       </c>
       <c r="K239" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="M239">
         <v>16079</v>
@@ -11128,14 +11134,14 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3</v>
+      <c r="J240" t="s">
+        <v>69</v>
       </c>
       <c r="K240" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="M240">
         <v>16079</v>
@@ -11172,14 +11178,14 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>3</v>
+      <c r="J241" t="s">
+        <v>69</v>
       </c>
       <c r="K241" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>592</v>
       </c>
       <c r="M241">
         <v>16079</v>
@@ -11216,14 +11222,14 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>3</v>
+      <c r="J242" t="s">
+        <v>68</v>
       </c>
       <c r="K242" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>312</v>
       </c>
       <c r="M242">
         <v>16081</v>
@@ -11260,14 +11266,14 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>3</v>
+      <c r="J243" t="s">
+        <v>68</v>
       </c>
       <c r="K243" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="M243">
         <v>16081</v>
@@ -11304,14 +11310,14 @@
       <c r="I244">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>3</v>
+      <c r="J244" t="s">
+        <v>69</v>
       </c>
       <c r="K244" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="M244">
         <v>16081</v>
@@ -11348,14 +11354,14 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245">
-        <v>3</v>
+      <c r="J245" t="s">
+        <v>69</v>
       </c>
       <c r="K245" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="M245">
         <v>16081</v>
@@ -11392,14 +11398,14 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3</v>
+      <c r="J246" t="s">
+        <v>69</v>
       </c>
       <c r="K246" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="M246">
         <v>16081</v>
@@ -11436,14 +11442,14 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>3</v>
+      <c r="J247" t="s">
+        <v>69</v>
       </c>
       <c r="K247" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>466</v>
       </c>
       <c r="M247">
         <v>16081</v>
@@ -11480,14 +11486,14 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>3</v>
+      <c r="J248" t="s">
+        <v>68</v>
       </c>
       <c r="K248" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>523</v>
       </c>
       <c r="M248">
         <v>16083</v>
@@ -11524,14 +11530,14 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>3</v>
+      <c r="J249" t="s">
+        <v>68</v>
       </c>
       <c r="K249" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="M249">
         <v>16083</v>
@@ -11568,14 +11574,14 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250">
-        <v>3</v>
+      <c r="J250" t="s">
+        <v>69</v>
       </c>
       <c r="K250" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>2758</v>
       </c>
       <c r="M250">
         <v>16083</v>
@@ -11612,14 +11618,14 @@
       <c r="I251">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>3</v>
+      <c r="J251" t="s">
+        <v>69</v>
       </c>
       <c r="K251" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>662</v>
       </c>
       <c r="M251">
         <v>16083</v>
@@ -11656,14 +11662,14 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>3</v>
+      <c r="J252" t="s">
+        <v>69</v>
       </c>
       <c r="K252" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>1203</v>
       </c>
       <c r="M252">
         <v>16083</v>
@@ -11700,14 +11706,14 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253">
-        <v>3</v>
+      <c r="J253" t="s">
+        <v>69</v>
       </c>
       <c r="K253" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>4718</v>
       </c>
       <c r="M253">
         <v>16083</v>
@@ -11744,14 +11750,14 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>3</v>
+      <c r="J254" t="s">
+        <v>68</v>
       </c>
       <c r="K254" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="M254">
         <v>16085</v>
@@ -11788,14 +11794,14 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>3</v>
+      <c r="J255" t="s">
+        <v>68</v>
       </c>
       <c r="K255" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="M255">
         <v>16085</v>
@@ -11832,14 +11838,14 @@
       <c r="I256">
         <v>1</v>
       </c>
-      <c r="J256">
-        <v>3</v>
+      <c r="J256" t="s">
+        <v>69</v>
       </c>
       <c r="K256" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>576</v>
       </c>
       <c r="M256">
         <v>16085</v>
@@ -11876,14 +11882,14 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>3</v>
+      <c r="J257" t="s">
+        <v>69</v>
       </c>
       <c r="K257" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="M257">
         <v>16085</v>
@@ -11920,14 +11926,14 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>3</v>
+      <c r="J258" t="s">
+        <v>69</v>
       </c>
       <c r="K258" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="M258">
         <v>16085</v>
@@ -11964,14 +11970,14 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>3</v>
+      <c r="J259" t="s">
+        <v>69</v>
       </c>
       <c r="K259" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>477</v>
       </c>
       <c r="M259">
         <v>16085</v>
@@ -12008,14 +12014,14 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>3</v>
+      <c r="J260" t="s">
+        <v>68</v>
       </c>
       <c r="K260" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="M260">
         <v>16087</v>
@@ -12052,14 +12058,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261">
-        <v>3</v>
+      <c r="J261" t="s">
+        <v>68</v>
       </c>
       <c r="K261" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="M261">
         <v>16087</v>
@@ -12096,14 +12102,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>3</v>
+      <c r="J262" t="s">
+        <v>69</v>
       </c>
       <c r="K262" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>767</v>
       </c>
       <c r="M262">
         <v>16087</v>
@@ -12140,14 +12146,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>3</v>
+      <c r="J263" t="s">
+        <v>69</v>
       </c>
       <c r="K263" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="M263">
         <v>16087</v>
@@ -12184,14 +12190,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
-        <v>3</v>
+      <c r="J264" t="s">
+        <v>69</v>
       </c>
       <c r="K264" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>262</v>
       </c>
       <c r="M264">
         <v>16087</v>
@@ -12228,14 +12234,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265">
-        <v>3</v>
+      <c r="J265" t="s">
+        <v>69</v>
       </c>
       <c r="K265" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>784</v>
       </c>
       <c r="M265">
         <v>16087</v>
